--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjw\Documents\agari_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agari_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A87D2E-3848-4EEC-B08B-897E01E0C5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B920C-06CB-44D1-89C5-B52265D33060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
+    <workbookView xWindow="7290" yWindow="210" windowWidth="21600" windowHeight="11295" xr2:uid="{31515CE8-665D-4E23-8B30-7EAAD9FF2ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트에서 충돌 검사 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로비 스테이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +431,10 @@
   </si>
   <si>
     <t>아이템 상호작용 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트에서 충돌 검사 구현 //???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,109 +635,109 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,71 +1123,71 @@
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="17" t="s">
-        <v>94</v>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1198,92 +1198,92 @@
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>63</v>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="26"/>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1292,90 +1292,90 @@
         <v>38</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1387,83 +1387,83 @@
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1472,54 +1472,65 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="14"/>
+      <c r="B21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B21:B22"/>
@@ -1531,20 +1542,9 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>